--- a/data_files/Listeria_2018.xlsx
+++ b/data_files/Listeria_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E92F82-C23A-4355-B24B-AAFD6A4F455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147151AE-09EF-4866-9495-A508B8438D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'high 2018'!$A$1:$T$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Listeria Assumptions 2018'!$A$1:$U$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Listeria mean CoI 2018'!$A$1:$T$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Listeria mean CoI 2018'!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
   <si>
     <t>Total Cases</t>
   </si>
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
@@ -1072,7 +1072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1105,9 +1104,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1122,7 +1118,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1160,7 +1155,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1365,7 +1359,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1373,7 +1366,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1390,11 +1382,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,15 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,62 +1803,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="58"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10" ht="72.900000000000006">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="60"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="2:10" ht="43.75">
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="250" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="60"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="2:10" ht="51" customHeight="1">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="60"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="65" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="97" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1">
-      <c r="B12" s="60"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="2:10" ht="43.75">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B14" s="67"/>
+      <c r="B14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="29.15">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1896,10 +1891,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6"/>
@@ -1909,860 +1904,783 @@
     <col min="4" max="4" width="40.84375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.53515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.84375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.07421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.84375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.53515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.4609375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.3046875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="16.69140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.3046875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.4609375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.84375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.07421875" style="1"/>
+    <col min="7" max="7" width="13.07421875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.84375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.53515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.4609375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.69140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3046875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.4609375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.84375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="19" customFormat="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="223"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-    </row>
-    <row r="2" spans="1:21" s="19" customFormat="1">
-      <c r="A2" s="65"/>
-      <c r="E2" s="65" t="s">
+      <c r="H1" s="219"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+    </row>
+    <row r="2" spans="1:19" s="18" customFormat="1">
+      <c r="A2" s="62"/>
+      <c r="E2" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="224"/>
-    </row>
-    <row r="3" spans="1:21" s="19" customFormat="1">
-      <c r="A3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="224"/>
-    </row>
-    <row r="4" spans="1:21" s="19" customFormat="1">
-      <c r="A4" s="65"/>
-      <c r="F4" s="257" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="220"/>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1">
+      <c r="A3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="220"/>
+    </row>
+    <row r="4" spans="1:19" s="18" customFormat="1">
+      <c r="A4" s="62"/>
+      <c r="F4" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="257" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="259"/>
-    </row>
-    <row r="5" spans="1:21" s="19" customFormat="1">
-      <c r="A5" s="65"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="257" t="s">
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="257"/>
+    </row>
+    <row r="5" spans="1:19" s="18" customFormat="1">
+      <c r="A5" s="62"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="259"/>
-      <c r="H5" s="260" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="208" t="s">
+      <c r="G5" s="257"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="204" t="s">
         <v>13</v>
       </c>
+      <c r="M5" s="251"/>
       <c r="N5" s="263" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="264"/>
-      <c r="P5" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="265" t="s">
+      <c r="O5" s="254"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="259"/>
-    </row>
-    <row r="6" spans="1:21" s="19" customFormat="1" ht="58.3">
-      <c r="A6" s="108"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="206" t="s">
+      <c r="R5" s="257"/>
+    </row>
+    <row r="6" spans="1:19" s="18" customFormat="1" ht="58.3">
+      <c r="A6" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="212" t="s">
+      <c r="F6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="167" t="s">
+      <c r="H6" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="I6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="J6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="168" t="s">
+      <c r="K6" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="L6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="212" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="167" t="s">
+      <c r="M6" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="64" t="s">
+      <c r="N6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="167" t="s">
+      <c r="O6" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="167" t="s">
+      <c r="P6" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="Q6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="168" t="s">
+      <c r="R6" s="164" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="19" customFormat="1">
-      <c r="A7" s="108"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="226"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="229"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="230"/>
-    </row>
-    <row r="8" spans="1:21" s="19" customFormat="1">
-      <c r="A8" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="232"/>
+    <row r="7" spans="1:19" s="18" customFormat="1">
+      <c r="A7" s="104"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="226"/>
+    </row>
+    <row r="8" spans="1:19" s="18" customFormat="1">
+      <c r="E8" s="40"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="234"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="235"/>
-    </row>
-    <row r="9" spans="1:21" s="19" customFormat="1">
-      <c r="A9" s="65" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="231"/>
+    </row>
+    <row r="9" spans="1:19" s="18" customFormat="1">
+      <c r="A9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="92">
+      <c r="E9" s="40">
+        <f>SUM(F9:K9)+SUM(M9:R9)</f>
+        <v>1591.0000000000002</v>
+      </c>
+      <c r="F9" s="88">
         <f>'Listeria Assumptions 2018'!G9</f>
         <v>135.99999999999991</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="89">
         <f>'Listeria Assumptions 2018'!H9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="93">
+      <c r="H9" s="89">
         <f>'Listeria Assumptions 2018'!J9</f>
         <v>196.42500000000001</v>
       </c>
-      <c r="J9" s="93">
+      <c r="I9" s="89">
         <f>'Listeria Assumptions 2018'!K9</f>
         <v>32.925995250000007</v>
       </c>
-      <c r="K9" s="93">
+      <c r="J9" s="89">
         <f>'Listeria Assumptions 2018'!L9</f>
         <v>697.12897666011236</v>
       </c>
-      <c r="L9" s="93">
+      <c r="K9" s="89">
         <f>'Listeria Assumptions 2018'!M9</f>
         <v>246.97752808988767</v>
       </c>
-      <c r="M9" s="233">
+      <c r="L9" s="229">
         <v>247</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="93">
+      <c r="M9" s="89">
         <f>'Listeria Assumptions 2018'!P9</f>
         <v>189.05727808988766</v>
       </c>
-      <c r="P9" s="233">
+      <c r="N9" s="229">
         <f>'Listeria Assumptions 2018'!S9</f>
         <v>6.7232349000000049</v>
       </c>
-      <c r="Q9" s="93">
+      <c r="O9" s="89">
         <f>'Listeria Assumptions 2018'!T9</f>
         <v>20.1697047</v>
       </c>
-      <c r="R9" s="93">
+      <c r="P9" s="89">
         <f>'Listeria Assumptions 2018'!U9</f>
         <v>6.7232349000000022</v>
       </c>
-      <c r="S9" s="233">
+      <c r="Q9" s="229">
         <f>'Listeria Assumptions 2018'!Q9</f>
         <v>8.02247191011236</v>
       </c>
-      <c r="T9" s="235">
+      <c r="R9" s="231">
         <f>'Listeria Assumptions 2018'!R9</f>
         <v>50.846575500000007</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="19" customFormat="1">
-      <c r="A10" s="65"/>
-      <c r="E10" s="42">
-        <f>F9+H10+N10</f>
-        <v>1591</v>
-      </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42">
-        <f>SUM(I9:L9)</f>
-        <v>1173.4575</v>
-      </c>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="92">
-        <f>SUM(O9:T9)</f>
-        <v>281.54250000000002</v>
-      </c>
-      <c r="O10" s="44"/>
+    <row r="10" spans="1:19" s="18" customFormat="1">
+      <c r="A10" s="62"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="42"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="236"/>
-    </row>
-    <row r="11" spans="1:21" s="19" customFormat="1">
-      <c r="A11" s="65"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="41"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="47"/>
-    </row>
-    <row r="12" spans="1:21" s="19" customFormat="1">
-      <c r="A12" s="65" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="232"/>
+    </row>
+    <row r="11" spans="1:19" s="18" customFormat="1">
+      <c r="A11" s="62"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="39"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="45"/>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" s="19" customFormat="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="19" t="s">
+      <c r="E12" s="48"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="224"/>
-    </row>
-    <row r="14" spans="1:21" s="19" customFormat="1">
-      <c r="A14" s="65"/>
-      <c r="C14" s="19" t="s">
+      <c r="E13" s="48"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="220"/>
+    </row>
+    <row r="14" spans="1:19" s="18" customFormat="1">
+      <c r="A14" s="62"/>
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="49"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="228"/>
-      <c r="O14" s="243"/>
-      <c r="P14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-    </row>
-    <row r="15" spans="1:21" s="19" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="C15" s="19" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="47"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" s="18" customFormat="1">
+      <c r="A15" s="62"/>
+      <c r="C15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="49"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="244"/>
-      <c r="P15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-    </row>
-    <row r="16" spans="1:21" s="19" customFormat="1">
-      <c r="A16" s="65"/>
-      <c r="C16" s="19" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="47"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="239"/>
+      <c r="N15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" spans="1:19" s="18" customFormat="1">
+      <c r="A16" s="62"/>
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="228"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="10"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-    </row>
-    <row r="17" spans="1:21" s="19" customFormat="1">
-      <c r="A17" s="65"/>
-      <c r="C17" s="19" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="9"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+    </row>
+    <row r="17" spans="1:19" s="18" customFormat="1">
+      <c r="A17" s="62"/>
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="48">
-        <f>'Listeria Assumptions 2018'!J21*I9</f>
+      <c r="E17" s="48"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="46">
+        <f>'Listeria Assumptions 2018'!J21*H9</f>
         <v>8040584.2723240945</v>
       </c>
-      <c r="J17" s="48">
-        <f>'Listeria Assumptions 2018'!K21*J9</f>
+      <c r="I17" s="46">
+        <f>'Listeria Assumptions 2018'!K21*I9</f>
         <v>1347813.3616279389</v>
       </c>
-      <c r="K17" s="48">
-        <f>'Listeria Assumptions 2018'!L21*K9</f>
+      <c r="J17" s="46">
+        <f>'Listeria Assumptions 2018'!L21*J9</f>
         <v>85610145.635963291</v>
       </c>
-      <c r="L17" s="48">
-        <f>'Listeria Assumptions 2018'!M21*L9</f>
+      <c r="K17" s="46">
+        <f>'Listeria Assumptions 2018'!M21*K9</f>
         <v>20219866.39151876</v>
       </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="48">
-        <f>'Listeria Assumptions 2018'!P21*O9</f>
+      <c r="L17" s="48"/>
+      <c r="M17" s="46">
+        <f>'Listeria Assumptions 2018'!P21*M9</f>
         <v>30955957.271792404</v>
       </c>
-      <c r="P17" s="50">
-        <f>'Listeria Assumptions 2018'!S21*P9</f>
+      <c r="N17" s="48">
+        <f>'Listeria Assumptions 2018'!S21*N9</f>
         <v>1100852.4738924389</v>
       </c>
-      <c r="Q17" s="49">
-        <f>'Listeria Assumptions 2018'!T21*Q9</f>
+      <c r="O17" s="47">
+        <f>'Listeria Assumptions 2018'!T21*O9</f>
         <v>3302557.4216773147</v>
       </c>
-      <c r="R17" s="49">
-        <f>'Listeria Assumptions 2018'!U21*R9</f>
+      <c r="P17" s="47">
+        <f>'Listeria Assumptions 2018'!U21*P9</f>
         <v>1100852.4738924385</v>
       </c>
-      <c r="S17" s="50">
-        <f>'Listeria Assumptions 2018'!Q21*S9</f>
+      <c r="Q17" s="48">
+        <f>'Listeria Assumptions 2018'!Q21*Q9</f>
         <v>1313587.6078016828</v>
       </c>
-      <c r="T17" s="57"/>
-      <c r="U17" s="247">
-        <f>SUM(I17:S17)/E$28</f>
+      <c r="R17" s="54"/>
+      <c r="S17" s="241">
+        <f>SUM(H17:Q17)/E$28</f>
         <v>4.7964662230556038E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="19" customFormat="1">
-      <c r="A18" s="65"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+    <row r="18" spans="1:19" s="18" customFormat="1">
+      <c r="A18" s="62"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="46"/>
       <c r="L18" s="48"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="246"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="247"/>
-    </row>
-    <row r="19" spans="1:21" s="19" customFormat="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="19" t="s">
+      <c r="M18" s="46"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="241"/>
+    </row>
+    <row r="19" spans="1:19" s="18" customFormat="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="248"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="246"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="50">
-        <f>'Listeria Assumptions 2018'!S33*P$9</f>
+      <c r="D19" s="242"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="48">
+        <f>'Listeria Assumptions 2018'!S33*N$9</f>
         <v>765791.09020673763</v>
       </c>
-      <c r="Q19" s="49">
-        <f>'Listeria Assumptions 2018'!T33*Q$9</f>
+      <c r="O19" s="47">
+        <f>'Listeria Assumptions 2018'!T33*O$9</f>
         <v>5743433.1765505383</v>
       </c>
-      <c r="R19" s="49">
-        <f>'Listeria Assumptions 2018'!U33*R$9</f>
+      <c r="P19" s="47">
+        <f>'Listeria Assumptions 2018'!U33*P$9</f>
         <v>10490825.819695728</v>
       </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="247">
-        <f>SUM(P19:T19)/E$28</f>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="241">
+        <f>SUM(N19:R19)/E$28</f>
         <v>5.3296937371416228E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="19" customFormat="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
+    <row r="20" spans="1:19" s="18" customFormat="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="248"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="72">
-        <f>SUM(I13:I19)</f>
+      <c r="D20" s="242"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="237"/>
+      <c r="H20" s="69">
+        <f>SUM(H13:H19)</f>
         <v>8040584.2723240945</v>
       </c>
-      <c r="J20" s="72">
-        <f t="shared" ref="J20:S20" si="0">SUM(J13:J19)</f>
+      <c r="I20" s="69">
+        <f t="shared" ref="I20:Q20" si="0">SUM(I13:I19)</f>
         <v>1347813.3616279389</v>
       </c>
-      <c r="K20" s="72">
+      <c r="J20" s="69">
         <f t="shared" si="0"/>
         <v>85610145.635963291</v>
       </c>
-      <c r="L20" s="73">
+      <c r="K20" s="70">
         <f t="shared" si="0"/>
         <v>20219866.39151876</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="72">
+      <c r="L20" s="71"/>
+      <c r="M20" s="69">
         <f t="shared" si="0"/>
         <v>30955957.271792404</v>
       </c>
-      <c r="P20" s="76">
+      <c r="N20" s="72">
         <f t="shared" si="0"/>
         <v>1866643.5640991766</v>
       </c>
+      <c r="O20" s="69">
+        <f t="shared" si="0"/>
+        <v>9045990.598227853</v>
+      </c>
+      <c r="P20" s="69">
+        <f t="shared" si="0"/>
+        <v>11591678.293588167</v>
+      </c>
       <c r="Q20" s="72">
         <f t="shared" si="0"/>
-        <v>9045990.598227853</v>
-      </c>
-      <c r="R20" s="72">
-        <f t="shared" si="0"/>
-        <v>11591678.293588167</v>
-      </c>
-      <c r="S20" s="76">
-        <f t="shared" si="0"/>
         <v>1313587.6078016828</v>
       </c>
-      <c r="T20" s="77"/>
-    </row>
-    <row r="21" spans="1:21" s="19" customFormat="1">
-      <c r="A21" s="65"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="241"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="R20" s="73"/>
+    </row>
+    <row r="21" spans="1:19" s="18" customFormat="1">
+      <c r="A21" s="62"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="237"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="48"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="246"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="247"/>
-    </row>
-    <row r="22" spans="1:21" s="19" customFormat="1">
-      <c r="A22" s="65" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="241"/>
+    </row>
+    <row r="22" spans="1:19" s="18" customFormat="1">
+      <c r="A22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="49">
-        <f>'Listeria Assumptions 2018'!J25*I9</f>
+      <c r="E22" s="48"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="47">
+        <f>'Listeria Assumptions 2018'!J25*H9</f>
         <v>397933.89630641742</v>
       </c>
-      <c r="J22" s="49">
-        <f>'Listeria Assumptions 2018'!K25*J9</f>
+      <c r="I22" s="47">
+        <f>'Listeria Assumptions 2018'!K25*I9</f>
         <v>40960.171368118274</v>
       </c>
-      <c r="K22" s="49">
-        <f>'Listeria Assumptions 2018'!L25*K9</f>
+      <c r="J22" s="47">
+        <f>'Listeria Assumptions 2018'!L25*J9</f>
         <v>1734466.7720972986</v>
       </c>
-      <c r="L22" s="48">
-        <f>'Listeria Assumptions 2018'!M25*L9</f>
+      <c r="K22" s="46">
+        <f>'Listeria Assumptions 2018'!M25*K9</f>
         <v>0</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="50">
-        <f>'Listeria Assumptions 2018'!S34*P$9</f>
+      <c r="L22" s="48"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="48">
+        <f>'Listeria Assumptions 2018'!S34*N$9</f>
         <v>3325688.3215274108</v>
       </c>
-      <c r="Q22" s="49">
-        <f>'Listeria Assumptions 2018'!T34*Q$9</f>
+      <c r="O22" s="47">
+        <f>'Listeria Assumptions 2018'!T34*O$9</f>
         <v>34365414.438491166</v>
       </c>
-      <c r="R22" s="49">
-        <f>'Listeria Assumptions 2018'!U34*R$9</f>
+      <c r="P22" s="47">
+        <f>'Listeria Assumptions 2018'!U34*P$9</f>
         <v>12317353.636930062</v>
       </c>
-      <c r="S22" s="50"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="247">
-        <f>SUM(I22:R22)/E$28</f>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="241">
+        <f>SUM(H22:P22)/E$28</f>
         <v>1.6359546183975105E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="19" customFormat="1">
-      <c r="A23" s="65"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
+    <row r="23" spans="1:19" s="18" customFormat="1">
+      <c r="A23" s="62"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="57"/>
-    </row>
-    <row r="24" spans="1:21" s="19" customFormat="1">
-      <c r="A24" s="65" t="s">
+      <c r="M23" s="46"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="54"/>
+    </row>
+    <row r="24" spans="1:19" s="18" customFormat="1">
+      <c r="A24" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="248"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="79">
-        <f>'Listeria Assumptions 2018'!$M$29*L9</f>
+      <c r="D24" s="242"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="237"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="75">
+        <f>'Listeria Assumptions 2018'!$M$29*K9</f>
         <v>2396328236.2087884</v>
       </c>
-      <c r="N24" s="246"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="79">
-        <f>'Listeria Assumptions 2018'!Q29*S9</f>
+      <c r="M24" s="46"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="75">
+        <f>'Listeria Assumptions 2018'!Q29*Q9</f>
         <v>77838968.229519814</v>
       </c>
-      <c r="T24" s="80">
-        <f>'Listeria Assumptions 2018'!R29*T9</f>
+      <c r="R24" s="76">
+        <f>'Listeria Assumptions 2018'!R29*R9</f>
         <v>493344821.80429953</v>
       </c>
-      <c r="U24" s="247">
-        <f>SUM(M24:T24)/E$28</f>
+      <c r="S24" s="241">
+        <f>SUM(L24:R24)/E$28</f>
         <v>0.93034609784832734</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="19" customFormat="1">
-      <c r="A25" s="65"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
+    <row r="25" spans="1:19" s="18" customFormat="1">
+      <c r="A25" s="62"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="46"/>
       <c r="L25" s="48"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="247"/>
-    </row>
-    <row r="26" spans="1:21" s="19" customFormat="1">
-      <c r="A26" s="62" t="s">
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="241"/>
+    </row>
+    <row r="26" spans="1:19" s="18" customFormat="1">
+      <c r="A26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52">
-        <f>SUM(I20:I24)</f>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="50">
+        <f>SUM(H20:H24)</f>
         <v>8438518.1686305124</v>
       </c>
-      <c r="J26" s="52">
-        <f t="shared" ref="J26:T26" si="1">SUM(J20:J24)</f>
+      <c r="I26" s="50">
+        <f t="shared" ref="I26:R26" si="1">SUM(I20:I24)</f>
         <v>1388773.5329960573</v>
       </c>
-      <c r="K26" s="52">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>87344612.408060595</v>
       </c>
-      <c r="L26" s="52">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>20219866.39151876</v>
       </c>
-      <c r="M26" s="51">
+      <c r="L26" s="49">
         <f t="shared" si="1"/>
         <v>2396328236.2087884</v>
       </c>
-      <c r="N26" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="52">
+      <c r="M26" s="50">
         <f t="shared" si="1"/>
         <v>30955957.271792404</v>
       </c>
-      <c r="P26" s="51">
+      <c r="N26" s="49">
         <f t="shared" si="1"/>
         <v>5192331.8856265871</v>
       </c>
-      <c r="Q26" s="52">
+      <c r="O26" s="50">
         <f t="shared" si="1"/>
         <v>43411405.036719017</v>
       </c>
-      <c r="R26" s="52">
+      <c r="P26" s="50">
         <f t="shared" si="1"/>
         <v>23909031.930518229</v>
       </c>
-      <c r="S26" s="51">
+      <c r="Q26" s="49">
         <f t="shared" si="1"/>
         <v>79152555.83732149</v>
       </c>
-      <c r="T26" s="253">
+      <c r="R26" s="247">
         <f t="shared" si="1"/>
         <v>493344821.80429953</v>
       </c>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" s="19" customFormat="1">
-      <c r="A27" s="65"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" s="18" customFormat="1">
+      <c r="A27" s="62"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="237"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" s="19" customFormat="1" ht="15" thickBot="1">
-      <c r="A28" s="63" t="s">
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A28" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="81">
-        <f>SUM(F26:T26)</f>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="77">
+        <f>SUM(F26:R26)</f>
         <v>3189686110.4762712</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" s="19" customFormat="1" ht="15" thickTop="1">
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="9"/>
-      <c r="U29" s="251">
-        <f>SUM(U17:U25)</f>
+      <c r="F28" s="78"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="248"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" s="18" customFormat="1" ht="15" thickTop="1">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="S29" s="245">
+        <f>SUM(S17:S25)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="90" customHeight="1">
-      <c r="A30" s="268" t="s">
+    <row r="30" spans="1:19" ht="90" customHeight="1">
+      <c r="A30" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="268"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="268"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="256"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2774,9 +2692,8 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2790,9 +2707,8 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:19">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2804,51 +2720,47 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1">
-      <c r="A34" s="266" t="s">
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
+      <c r="A34" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="266"/>
-      <c r="C34" s="266"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="266"/>
+      <c r="B34" s="252"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="252"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" ht="30" customHeight="1">
-      <c r="A35" s="252"/>
+    </row>
+    <row r="35" spans="1:17" ht="30" customHeight="1">
+      <c r="A35" s="246"/>
       <c r="B35"/>
-      <c r="C35" s="266" t="s">
+      <c r="C35" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36" s="60"/>
+      <c r="C36" s="57"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -2857,26 +2769,23 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="30" customHeight="1">
+    </row>
+    <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" s="266" t="s">
+      <c r="C37" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
-      <c r="K37" s="266"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="D37" s="252"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="252"/>
+      <c r="J37" s="252"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2888,21 +2797,19 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="N4:T4"/>
+  <mergeCells count="10">
+    <mergeCell ref="M4:R4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="C35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -2943,448 +2850,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="65"/>
-      <c r="I1" s="102"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="62"/>
+      <c r="I1" s="98"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="108"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="130" t="s">
+      <c r="A2" s="104"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="108"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="65"/>
+      <c r="A3" s="104"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="108"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="206" t="s">
+      <c r="A4" s="104"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="257" t="s">
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="15"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="65"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="257" t="s">
+      <c r="A5" s="62"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="259"/>
-      <c r="H5" s="260" t="s">
+      <c r="G5" s="257"/>
+      <c r="H5" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="208" t="s">
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="209"/>
-      <c r="O5" s="210" t="s">
+      <c r="N5" s="205"/>
+      <c r="O5" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="265" t="s">
+      <c r="P5" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="265" t="s">
+      <c r="Q5" s="254"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="15"/>
+      <c r="T5" s="254"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" ht="58.3">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212" t="s">
+      <c r="E6" s="207"/>
+      <c r="F6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="168" t="s">
+      <c r="L6" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="213" t="s">
+      <c r="N6" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="167" t="s">
+      <c r="O6" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="64" t="s">
+      <c r="P6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="167" t="s">
+      <c r="Q6" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="167" t="s">
+      <c r="R6" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="168" t="s">
+      <c r="T6" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="15"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="214"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="210"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="15"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" ht="15.9">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="216"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="212"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="11"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="10"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="94">
+      <c r="E9" s="17"/>
+      <c r="F9" s="90">
         <f>'Listeria Assumptions 2018'!G8</f>
         <v>35.999999999999964</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="91">
         <f>'Listeria Assumptions 2018'!H8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="97">
+      <c r="H9" s="17"/>
+      <c r="I9" s="93">
         <f>'Listeria Assumptions 2018'!J8</f>
         <v>70.335000000000008</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="93">
         <f>'Listeria Assumptions 2018'!K8</f>
         <v>11.789995549999952</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="93">
         <f>'Listeria Assumptions 2018'!L8</f>
         <v>338.06150445000009</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="93">
         <f>'Listeria Assumptions 2018'!M8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="188">
+      <c r="M9" s="184">
         <f>'Listeria Assumptions 2018'!M8</f>
         <v>0</v>
       </c>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97">
+      <c r="N9" s="92"/>
+      <c r="O9" s="93">
         <f>'Listeria Assumptions 2018'!P8</f>
         <v>70.569449999999989</v>
       </c>
-      <c r="P9" s="188">
+      <c r="P9" s="184">
         <f>'Listeria Assumptions 2018'!S8</f>
         <v>2.4074263800000004</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="93">
         <f>'Listeria Assumptions 2018'!T8</f>
         <v>7.2222791399999995</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="93">
         <f>'Listeria Assumptions 2018'!U8</f>
         <v>2.4074263800000004</v>
       </c>
-      <c r="S9" s="188">
+      <c r="S9" s="184">
         <f>'Listeria Assumptions 2018'!Q8</f>
         <v>0</v>
       </c>
-      <c r="T9" s="97">
+      <c r="T9" s="93">
         <f>'Listeria Assumptions 2018'!R8</f>
         <v>18.206918100000003</v>
       </c>
-      <c r="U9" s="15"/>
+      <c r="U9" s="14"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="65"/>
-      <c r="E10" s="31">
+      <c r="A10" s="62"/>
+      <c r="E10" s="30">
         <f>F9+H10+N10</f>
         <v>557</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="18">
+      <c r="F10" s="90"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="17">
         <f>SUM(I9:L9)</f>
         <v>420.18650000000002</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="96">
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="92">
         <f>SUM(O9:T9)</f>
         <v>100.8135</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="18"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="65"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="191"/>
+      <c r="A11" s="62"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="187"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="217"/>
-      <c r="P11" s="12"/>
-      <c r="S11" s="14"/>
-      <c r="U11" s="15"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="213"/>
+      <c r="P11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="219"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="215"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="13"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="65"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="14"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="65"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="62"/>
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="219"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="215"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="13"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="65"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="62"/>
+      <c r="C15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="219"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="215"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="13"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="15"/>
+      <c r="U15" s="14"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="65"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="62"/>
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="79"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="75"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="13"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="14"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="65"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="62"/>
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="4">
         <f>'Listeria Assumptions 2018'!J21*I9</f>
         <v>2879137.0487153633</v>
@@ -3401,13 +3308,13 @@
         <f>'Listeria Assumptions 2018'!M20*L9</f>
         <v>0</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="219"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="215"/>
       <c r="O17" s="4">
         <f>'Listeria Assumptions 2018'!P21*O9</f>
         <v>11554936.68884434</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f>'Listeria Assumptions 2018'!S21*P9</f>
         <v>394188.41161371849</v>
       </c>
@@ -3419,48 +3326,48 @@
         <f>'Listeria Assumptions 2018'!U21*R9</f>
         <v>394188.41161371849</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="12"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="15"/>
+      <c r="U17" s="14"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="65"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="62"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="219"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="215"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="13"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="12"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="15"/>
+      <c r="U18" s="14"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="65"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="219"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="215"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <f>'Listeria Assumptions 2018'!S33*P9</f>
         <v>274211.10515306535</v>
       </c>
@@ -3472,83 +3379,83 @@
         <f>'Listeria Assumptions 2018'!U33*R9</f>
         <v>3756508.7643034183</v>
       </c>
-      <c r="S19" s="13"/>
+      <c r="S19" s="12"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="72">
+      <c r="D20" s="197"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="69">
         <f>SUM(I17:I19)</f>
         <v>2879137.0487153633</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="69">
         <f>SUM(J17:J19)</f>
         <v>482619.08000560355</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="69">
         <f>SUM(K17:K19)</f>
         <v>41515265.60914693</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="72">
+      <c r="L20" s="68"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="69">
         <f>SUM(O17:O19)</f>
         <v>11554936.68884434</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="72">
         <f>SUM(P17:P19)</f>
         <v>668399.51676678378</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="69">
         <f t="shared" ref="Q20:R20" si="0">SUM(Q17:Q19)</f>
         <v>3239148.5234891484</v>
       </c>
-      <c r="R20" s="72">
+      <c r="R20" s="69">
         <f t="shared" si="0"/>
         <v>4150697.1759171369</v>
       </c>
-      <c r="S20" s="13"/>
+      <c r="S20" s="12"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="15"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="65"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="62"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="219"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="215"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="13"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="12"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="4">
         <f>'Listeria Assumptions 2018'!J25*I9</f>
         <v>142490.41922724637</v>
@@ -3565,10 +3472,10 @@
         <f>'Listeria Assumptions 2018'!M25*L9</f>
         <v>0</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="219"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="215"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <f>'Listeria Assumptions 2018'!S34*P9</f>
         <v>1190847.8457153128</v>
       </c>
@@ -3580,50 +3487,50 @@
         <f>'Listeria Assumptions 2018'!U34*R9</f>
         <v>4410543.8108869838</v>
       </c>
-      <c r="S22" s="13"/>
+      <c r="S22" s="12"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="14"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="65"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="62"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="219"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="215"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="13"/>
+      <c r="S23" s="12"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="14"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="83"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="79"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="219"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="215"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="13">
+      <c r="S24" s="12">
         <f>'Listeria Assumptions 2018'!Q29*S9</f>
         <v>0</v>
       </c>
@@ -3631,150 +3538,150 @@
         <f>'Listeria Assumptions 2018'!R29*T9</f>
         <v>176654743.75260487</v>
       </c>
-      <c r="U24" s="15"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="65"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="62"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="219"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="215"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="13"/>
+      <c r="S25" s="12"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="14"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21">
+      <c r="E26" s="12"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="20">
         <f>SUM(I20:I24)</f>
         <v>3021627.4679426095</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <f>SUM(J20:J24)</f>
         <v>497285.91800064791</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <f>SUM(K20:K24)</f>
         <v>42356367.422476992</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="20">
         <f>SUM(L18:L25)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <f>SUM(M17:M25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="222"/>
-      <c r="O26" s="21">
+      <c r="N26" s="218"/>
+      <c r="O26" s="20">
         <f>SUM(O20:O24)</f>
         <v>11554936.68884434</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="21">
         <f>SUM(P20:P24)</f>
         <v>1859247.3624820965</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="20">
         <f>SUM(Q20:Q24)</f>
         <v>15544564.965038218</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="20">
         <f>SUM(R20:R24)</f>
         <v>8561240.9868041202</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="21">
         <f>SUM(S18:S25)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="20">
         <f>SUM(T18:T25)</f>
         <v>176654743.75260487</v>
       </c>
-      <c r="U26" s="15"/>
+      <c r="U26" s="14"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="65"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
+      <c r="A27" s="62"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="205"/>
+      <c r="N27" s="201"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="14"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="81">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="77">
         <f>SUM(F26:T26)</f>
         <v>260050014.5641939</v>
       </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="15"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="14"/>
     </row>
     <row r="29" spans="1:21" ht="15" thickTop="1">
       <c r="J29" s="4"/>
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:21" ht="90" customHeight="1">
-      <c r="A30" s="268" t="s">
+      <c r="A30" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="268"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="268"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="256"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31"/>
@@ -3821,18 +3728,18 @@
       <c r="L33"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1">
-      <c r="A34" s="266" t="s">
+      <c r="A34" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="266"/>
-      <c r="C34" s="266"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="266"/>
+      <c r="B34" s="252"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="252"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="252"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" s="4"/>
@@ -3844,25 +3751,25 @@
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
-      <c r="A35" s="252"/>
+      <c r="A35" s="246"/>
       <c r="B35"/>
-      <c r="C35" s="266" t="s">
+      <c r="C35" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="252"/>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36" s="60"/>
+      <c r="C36" s="57"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -3877,17 +3784,17 @@
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" s="266" t="s">
+      <c r="C37" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
-      <c r="K37" s="266"/>
+      <c r="D37" s="252"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="252"/>
+      <c r="J37" s="252"/>
+      <c r="K37" s="252"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:19">
@@ -3899,16 +3806,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="C37:K37"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="C35:K35"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="landscape" r:id="rId1"/>
@@ -3954,457 +3861,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="I1" s="102"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
+      <c r="F1" s="62"/>
+      <c r="I1" s="98"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="108"/>
-      <c r="E2" s="65" t="s">
+      <c r="A2" s="104"/>
+      <c r="E2" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="108"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="65"/>
+      <c r="A3" s="104"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="108"/>
-      <c r="E4" s="136" t="s">
+      <c r="A4" s="104"/>
+      <c r="E4" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="257" t="s">
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="259"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="257"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="263" t="s">
+      <c r="A5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="269"/>
-      <c r="H5" s="270" t="s">
+      <c r="G5" s="264"/>
+      <c r="H5" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="162" t="s">
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164" t="s">
+      <c r="N5" s="159"/>
+      <c r="O5" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="265" t="s">
+      <c r="P5" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="265" t="s">
+      <c r="Q5" s="254"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="259"/>
+      <c r="T5" s="257"/>
     </row>
     <row r="6" spans="1:21" ht="43.75">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="165" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="167" t="s">
+      <c r="I6" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="168" t="s">
+      <c r="L6" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="169" t="s">
+      <c r="N6" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="170" t="s">
+      <c r="O6" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="109" t="s">
+      <c r="Q6" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="66" t="s">
+      <c r="S6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="114" t="s">
+      <c r="T6" s="110" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="D7" s="8"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="11"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="56"/>
-    </row>
-    <row r="8" spans="1:21" s="19" customFormat="1">
-      <c r="A8" s="65" t="s">
+      <c r="S7" s="10"/>
+      <c r="T7" s="53"/>
+    </row>
+    <row r="8" spans="1:21" s="18" customFormat="1">
+      <c r="A8" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="187"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="183"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3">
         <f>F9+H10+N10</f>
         <v>3161</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="90">
         <f>'Listeria Assumptions 2018'!G10</f>
         <v>143.00000000000006</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="91">
         <f>'Listeria Assumptions 2018'!H10</f>
         <v>0</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="97">
+      <c r="H9" s="17"/>
+      <c r="I9" s="93">
         <f>'Listeria Assumptions 2018'!J10</f>
         <v>407.43000000000006</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="93">
         <f>'Listeria Assumptions 2018'!K10</f>
         <v>68.29598189999993</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="91">
         <f>'Listeria Assumptions 2018'!L10</f>
         <v>1248.3516922573031</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="94">
         <f>'Listeria Assumptions 2018'!M10</f>
         <v>709.93932584269669</v>
       </c>
-      <c r="M9" s="188">
+      <c r="M9" s="184">
         <f>L9</f>
         <v>709.93932584269669</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="189">
+      <c r="N9" s="90"/>
+      <c r="O9" s="185">
         <f>'Listeria Assumptions 2018'!P10</f>
         <v>385.72742584269673</v>
       </c>
-      <c r="P9" s="188">
+      <c r="P9" s="184">
         <f>'Listeria Assumptions 2018'!S10</f>
         <v>13.945514040000001</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="93">
         <f>'Listeria Assumptions 2018'!T10</f>
         <v>41.836542120000004</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="93">
         <f>'Listeria Assumptions 2018'!U10</f>
         <v>13.945514040000001</v>
       </c>
-      <c r="S9" s="188">
+      <c r="S9" s="184">
         <f>'Listeria Assumptions 2018'!Q10</f>
         <v>23.060674157303374</v>
       </c>
-      <c r="T9" s="98">
+      <c r="T9" s="94">
         <f>'Listeria Assumptions 2018'!R10</f>
         <v>105.46732980000003</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="65"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="18">
+      <c r="F10" s="90"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="17">
         <f>SUM(I9:L9)</f>
         <v>2434.0169999999998</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="94">
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="90">
         <f>SUM(O9:T9)</f>
         <v>583.98300000000006</v>
       </c>
-      <c r="O10" s="190"/>
-      <c r="P10" s="18"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="120"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="116"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="65"/>
+      <c r="A11" s="62"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="191"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="187"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="12"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="24"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="24"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="23"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="65"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="117"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="65"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="62"/>
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="13"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="13"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="16"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="65"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="62"/>
+      <c r="C15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="13"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="13"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="16"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="15"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="65"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="62"/>
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="79"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="75"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="16"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="65"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="62"/>
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="23">
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="22">
         <f>'Listeria Assumptions 2018'!J21*I9</f>
         <v>16677995.418470185</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <f>'Listeria Assumptions 2018'!K21*J9</f>
         <v>2795670.6016447521</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <f>'Listeria Assumptions 2018'!L21*K9</f>
         <v>153302435.78607482</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <f>'Listeria Assumptions 2018'!M21*L9</f>
         <v>58122204.176404901</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="197"/>
-      <c r="O17" s="86">
+      <c r="M17" s="12"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="82">
         <f>'Listeria Assumptions 2018'!P21*O9</f>
         <v>63158434.489191309</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f>'Listeria Assumptions 2018'!S21*P9</f>
         <v>2283417.7087335936</v>
       </c>
@@ -4416,161 +4323,161 @@
         <f>'Listeria Assumptions 2018'!U21*R9</f>
         <v>2283417.7087335936</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <f>'Listeria Assumptions 2018'!Q21*S9</f>
         <v>3775920.4569358178</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="15"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="13"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="197"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="13"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="16"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="15"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="65"/>
+      <c r="A19" s="62"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="13"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="12"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="16"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="15"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="65"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="201"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="202"/>
-      <c r="P20" s="22">
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="21">
         <f>'Listeria Assumptions 2018'!S33*P$9</f>
         <v>1588424.4056659332</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <f>'Listeria Assumptions 2018'!T33*Q$9</f>
         <v>11913183.042494519</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <f>'Listeria Assumptions 2018'!U33*R$9</f>
         <v>21760352.112605982</v>
       </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="16"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="28">
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="27">
         <f t="shared" ref="I21:L21" si="0">SUM(I17:I20)</f>
         <v>16677995.418470185</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
         <v>2795670.6016447521</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="27">
         <f t="shared" si="0"/>
         <v>153302435.78607482</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <f t="shared" si="0"/>
         <v>58122204.176404901</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="86">
+      <c r="M21" s="12"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="82">
         <f>SUM(O17:O20)</f>
         <v>63158434.489191309</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <f t="shared" ref="P21:S21" si="1">SUM(P17:P20)</f>
         <v>3871842.1143995267</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="22">
         <f t="shared" si="1"/>
         <v>18763436.168695301</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="15">
         <f t="shared" si="1"/>
         <v>24043769.821339574</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <f t="shared" si="1"/>
         <v>3775920.4569358178</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="15"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="65"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="18"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="16"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="15"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="62" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="13"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="4">
         <f>'Listeria Assumptions 2018'!J25*I9</f>
         <v>825405.15398815658</v>
@@ -4579,18 +4486,18 @@
         <f>'Listeria Assumptions 2018'!K25*J9</f>
         <v>84960.685353251407</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <f>'Listeria Assumptions 2018'!L25*K9</f>
         <v>3105916.6992098615</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <f>'Listeria Assumptions 2018'!M25*L9</f>
         <v>0</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="13">
+      <c r="M23" s="12"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="12">
         <f>'Listeria Assumptions 2018'!S34*P$9</f>
         <v>6898231.8586733462</v>
       </c>
@@ -4602,177 +4509,177 @@
         <f>'Listeria Assumptions 2018'!U34*R$9</f>
         <v>25548985.069591008</v>
       </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="16"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="15"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="65"/>
+      <c r="A24" s="62"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="13"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="16"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="15"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="201"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="83"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="79">
+      <c r="K25" s="22"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="75">
         <f>'Listeria Assumptions 2018'!$M$29*L9</f>
         <v>6888269008.3962431</v>
       </c>
-      <c r="N25" s="197"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="13"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="13">
+      <c r="S25" s="12">
         <f>'Listeria Assumptions 2018'!Q29*S9</f>
         <v>223748877.30289423</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="15">
         <f>'Listeria Assumptions 2018'!R29*T9</f>
         <v>1023309053.0621142</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="65"/>
+      <c r="A26" s="62"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="13"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="12"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="16"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="15"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28">
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27">
         <f t="shared" ref="I27:M27" si="2">SUM(I21:I25)</f>
         <v>17503400.572458342</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="27">
         <f t="shared" si="2"/>
         <v>2880631.2869980037</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <f t="shared" si="2"/>
         <v>156408352.48528469</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <f t="shared" si="2"/>
         <v>58122204.176404901</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="26">
         <f t="shared" si="2"/>
         <v>6888269008.3962431</v>
       </c>
-      <c r="N27" s="205"/>
-      <c r="O27" s="30">
+      <c r="N27" s="201"/>
+      <c r="O27" s="29">
         <f>SUM(O21:O25)</f>
         <v>63158434.489191309</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="26">
         <f t="shared" ref="P27:S27" si="3">SUM(P21:P25)</f>
         <v>10770073.973072873</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="27">
         <f t="shared" si="3"/>
         <v>90045099.931833684</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="27">
         <f t="shared" si="3"/>
         <v>49592754.890930578</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="26">
         <f t="shared" si="3"/>
         <v>227524797.75983006</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="28">
         <f>SUM(T19:T25)</f>
         <v>1023309053.0621142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="65"/>
+      <c r="A28" s="62"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="197"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="193"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="16"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="89">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="85">
         <f>SUM(F27:T27)</f>
         <v>8587583811.0243607</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="90"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="86"/>
     </row>
     <row r="30" spans="1:20" ht="15" thickTop="1">
       <c r="J30" s="4"/>
@@ -4780,24 +4687,24 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="26"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="1:20" ht="90" customHeight="1">
-      <c r="A31" s="268" t="s">
+      <c r="A31" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="268"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="268"/>
-      <c r="I31" s="268"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="268"/>
-      <c r="L31" s="268"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="256"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32"/>
@@ -4844,18 +4751,18 @@
       <c r="L34"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1">
-      <c r="A35" s="266" t="s">
+      <c r="A35" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
+      <c r="B35" s="252"/>
+      <c r="C35" s="252"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" s="4"/>
@@ -4867,25 +4774,25 @@
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
-      <c r="A36" s="252"/>
+      <c r="A36" s="246"/>
       <c r="B36"/>
-      <c r="C36" s="266" t="s">
+      <c r="C36" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="266"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
-      <c r="G36" s="266"/>
-      <c r="H36" s="266"/>
-      <c r="I36" s="266"/>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="252"/>
+      <c r="H36" s="252"/>
+      <c r="I36" s="252"/>
+      <c r="J36" s="252"/>
+      <c r="K36" s="252"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" s="60"/>
+      <c r="C37" s="57"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -4900,17 +4807,17 @@
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38"/>
       <c r="B38"/>
-      <c r="C38" s="266" t="s">
+      <c r="C38" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="252"/>
       <c r="L38"/>
     </row>
     <row r="39" spans="1:19">
@@ -4922,16 +4829,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="C38:K38"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="C36:K36"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
@@ -4967,206 +4874,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="I1" s="102"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="G1" s="62"/>
+      <c r="I1" s="98"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="65"/>
-      <c r="E2" s="65" t="s">
+      <c r="A2" s="62"/>
+      <c r="E2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
+      <c r="A3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="65"/>
-      <c r="E4" s="104" t="s">
+      <c r="A4" s="62"/>
+      <c r="E4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="270" t="s">
+      <c r="F4" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="258" t="s">
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="15"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="65"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="271" t="s">
+      <c r="A5" s="62"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="266" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="272"/>
-      <c r="I5" s="273" t="s">
+      <c r="H5" s="267"/>
+      <c r="I5" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="274"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="265" t="s">
+      <c r="J5" s="269"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="259"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="269" t="s">
+      <c r="M5" s="257"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="264"/>
-      <c r="Q5" s="265" t="s">
+      <c r="P5" s="262"/>
+      <c r="Q5" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="259"/>
-      <c r="S5" s="265" t="s">
+      <c r="R5" s="257"/>
+      <c r="S5" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="259"/>
-      <c r="V5" s="15"/>
+      <c r="T5" s="254"/>
+      <c r="U5" s="257"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" ht="43.75">
-      <c r="A6" s="108"/>
-      <c r="E6" s="106" t="s">
+      <c r="A6" s="104"/>
+      <c r="E6" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="112"/>
-      <c r="O6" s="113" t="s">
+      <c r="N6" s="108"/>
+      <c r="O6" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="113" t="s">
+      <c r="R6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="66" t="s">
+      <c r="S6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="114" t="s">
+      <c r="U6" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="15"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="65"/>
+      <c r="A8" s="62"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="95">
         <f>G8+J8+K8+L8+O8+M8</f>
         <v>557</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>E8-O8</f>
         <v>456.18650000000002</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="114">
         <v>35.999999999999964</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="119">
+      <c r="I8" s="115">
         <f>SUM(J8:M8)</f>
         <v>420.18650000000002</v>
       </c>
@@ -5176,54 +5083,54 @@
       <c r="K8" s="3">
         <v>11.789995549999952</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>338.06150445000009</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M8" s="116">
         <v>0</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="34">
+      <c r="N8" s="117"/>
+      <c r="O8" s="33">
         <v>100.8135</v>
       </c>
-      <c r="P8" s="120">
+      <c r="P8" s="116">
         <v>70.569449999999989</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>0</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="33">
         <v>18.206918100000003</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <v>2.4074263800000004</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="33">
         <v>7.2222791399999995</v>
       </c>
-      <c r="U8" s="120">
+      <c r="U8" s="116">
         <v>2.4074263800000004</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="65"/>
+      <c r="A9" s="62"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="95">
         <f>G9+J9+K9+L9+O9+M9</f>
         <v>1591.0000000000002</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f t="shared" ref="F9:F10" si="0">E9-O9</f>
         <v>1309.4575000000002</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="115">
         <v>135.99999999999991</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="119">
+      <c r="I9" s="115">
         <f>SUM(J9:M9)</f>
         <v>1173.4575</v>
       </c>
@@ -5233,54 +5140,54 @@
       <c r="K9" s="3">
         <v>32.925995250000007</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>697.12897666011236</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M9" s="116">
         <v>246.97752808988767</v>
       </c>
-      <c r="N9" s="121"/>
-      <c r="O9" s="34">
+      <c r="N9" s="117"/>
+      <c r="O9" s="33">
         <v>281.54250000000002</v>
       </c>
-      <c r="P9" s="120">
+      <c r="P9" s="116">
         <v>189.05727808988766</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>8.02247191011236</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <v>50.846575500000007</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>6.7232349000000049</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="33">
         <v>20.1697047</v>
       </c>
-      <c r="U9" s="120">
+      <c r="U9" s="116">
         <v>6.7232349000000022</v>
       </c>
-      <c r="V9" s="15"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="65"/>
+      <c r="A10" s="62"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="95">
         <f>G10+J10+K10+L10+O10+M10</f>
         <v>3161</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>2577.0169999999998</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G10" s="115">
         <v>143.00000000000006</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="119">
+      <c r="I10" s="115">
         <f>SUM(J10:M10)</f>
         <v>2434.0169999999998</v>
       </c>
@@ -5290,258 +5197,258 @@
       <c r="K10" s="3">
         <v>68.29598189999993</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>1248.3516922573031</v>
       </c>
-      <c r="M10" s="120">
+      <c r="M10" s="116">
         <v>709.93932584269669</v>
       </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="34">
+      <c r="N10" s="117"/>
+      <c r="O10" s="33">
         <v>583.98300000000006</v>
       </c>
-      <c r="P10" s="120">
+      <c r="P10" s="116">
         <v>385.72742584269673</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>23.060674157303374</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="33">
         <v>105.46732980000003</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <v>13.945514040000001</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="33">
         <v>41.836542120000004</v>
       </c>
-      <c r="U10" s="120">
+      <c r="U10" s="116">
         <v>13.945514040000001</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="65"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:22" s="117" customFormat="1">
-      <c r="A12" s="122" t="s">
+      <c r="A11" s="62"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" s="113" customFormat="1">
+      <c r="A12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" s="117" customFormat="1">
-      <c r="A13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="116"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="15"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:22" s="113" customFormat="1">
+      <c r="A13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="112"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="15"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="65"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="15"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="65"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="65"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="15"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="65"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="15"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="65"/>
+      <c r="A19" s="62"/>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="71">
+      <c r="I19" s="12"/>
+      <c r="J19" s="68">
         <v>40934.62783415601</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="68">
         <v>40934.62783415601</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="75">
         <v>40934.62783415601</v>
       </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="135">
+      <c r="M19" s="76"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="131">
         <v>81869.255668312151</v>
       </c>
-      <c r="Q19" s="87">
+      <c r="Q19" s="83">
         <v>81869.255668312151</v>
       </c>
-      <c r="R19" s="79">
+      <c r="R19" s="75">
         <v>81869.255668312151</v>
       </c>
-      <c r="S19" s="79">
+      <c r="S19" s="75">
         <v>81869.255668312151</v>
       </c>
-      <c r="T19" s="87">
+      <c r="T19" s="83">
         <v>81869.255668312151</v>
       </c>
-      <c r="U19" s="80">
+      <c r="U19" s="76">
         <v>81869.255668312151</v>
       </c>
-      <c r="V19" s="15"/>
+      <c r="V19" s="14"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -5555,486 +5462,486 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="1:34" s="117" customFormat="1">
-      <c r="A20" s="130"/>
-      <c r="C20" s="117" t="s">
+    <row r="20" spans="1:34" s="113" customFormat="1">
+      <c r="A20" s="126"/>
+      <c r="C20" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="79">
+      <c r="E20" s="82"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="75">
         <v>81869.255668312151</v>
       </c>
-      <c r="M20" s="80">
+      <c r="M20" s="76">
         <v>81869.255668312151</v>
       </c>
-      <c r="N20" s="134"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="135">
+      <c r="N20" s="130"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="131">
         <v>81869.255668312151</v>
       </c>
-      <c r="Q20" s="87">
+      <c r="Q20" s="83">
         <v>81869.255668312151</v>
       </c>
-      <c r="R20" s="79">
+      <c r="R20" s="75">
         <v>81869.255668312151</v>
       </c>
-      <c r="S20" s="79">
+      <c r="S20" s="75">
         <v>81869.255668312151</v>
       </c>
-      <c r="T20" s="87">
+      <c r="T20" s="83">
         <v>81869.255668312151</v>
       </c>
-      <c r="U20" s="80">
+      <c r="U20" s="76">
         <v>81869.255668312151</v>
       </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="65"/>
+      <c r="A21" s="62"/>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="71">
+      <c r="I21" s="12"/>
+      <c r="J21" s="68">
         <f>SUM(J19:J20)</f>
         <v>40934.62783415601</v>
       </c>
-      <c r="K21" s="71">
+      <c r="K21" s="68">
         <f>SUM(K19:K20)</f>
         <v>40934.62783415601</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="75">
         <f>SUM(L19:L20)</f>
         <v>122803.88350246816</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="76">
         <f>SUM(M19:M20)</f>
         <v>81869.255668312151</v>
       </c>
-      <c r="N21" s="134"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="135">
+      <c r="N21" s="130"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="131">
         <f t="shared" ref="P21:U21" si="1">SUM(P19:P20)</f>
         <v>163738.5113366243</v>
       </c>
-      <c r="Q21" s="87">
+      <c r="Q21" s="83">
         <f t="shared" si="1"/>
         <v>163738.5113366243</v>
       </c>
-      <c r="R21" s="87">
+      <c r="R21" s="83">
         <f t="shared" si="1"/>
         <v>163738.5113366243</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="75">
         <f t="shared" si="1"/>
         <v>163738.5113366243</v>
       </c>
-      <c r="T21" s="87">
+      <c r="T21" s="83">
         <f t="shared" si="1"/>
         <v>163738.5113366243</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="76">
         <f t="shared" si="1"/>
         <v>163738.5113366243</v>
       </c>
-      <c r="V21" s="15"/>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="65"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="62"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="15"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="15"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="65"/>
+      <c r="A24" s="62"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="91"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="255">
+      <c r="I24" s="12"/>
+      <c r="J24" s="249">
         <v>15</v>
       </c>
-      <c r="K24" s="255">
+      <c r="K24" s="249">
         <v>15</v>
       </c>
-      <c r="L24" s="141">
+      <c r="L24" s="137">
         <v>30</v>
       </c>
-      <c r="M24" s="142"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="15"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="65"/>
+      <c r="A25" s="62"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="91"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="71">
+      <c r="I25" s="12"/>
+      <c r="J25" s="68">
         <v>2025.8821245076613</v>
       </c>
       <c r="K25" s="4">
         <v>1244.007084891937</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>2488.0141697838849</v>
       </c>
-      <c r="M25" s="146"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="13"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="12"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="65"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="62"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="71"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="15"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="15"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="65"/>
+      <c r="A28" s="62"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="152"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="154">
+      <c r="E28" s="148"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="150">
         <v>1764112.0887260665</v>
       </c>
-      <c r="N28" s="155"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="157">
+      <c r="N28" s="151"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="153">
         <v>1764112.0887260665</v>
       </c>
-      <c r="R28" s="157">
+      <c r="R28" s="153">
         <v>1764112.0887260665</v>
       </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="15"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="65"/>
+      <c r="A29" s="62"/>
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="154">
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="150">
         <v>9702616.4879933652</v>
       </c>
-      <c r="N29" s="155"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="157">
+      <c r="N29" s="151"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="153">
         <v>9702616.4879933652</v>
       </c>
-      <c r="R29" s="157">
+      <c r="R29" s="153">
         <v>9702616.4879933652</v>
       </c>
-      <c r="S29" s="74"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="15"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="65"/>
+      <c r="A30" s="62"/>
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="152"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="154">
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="150">
         <v>17641120.887260664</v>
       </c>
-      <c r="N30" s="155"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="157">
+      <c r="N30" s="151"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="153">
         <v>17641120.887260664</v>
       </c>
-      <c r="R30" s="157">
+      <c r="R30" s="153">
         <v>17641120.887260664</v>
       </c>
-      <c r="S30" s="74"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="15"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="65"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="62"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="15"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="15"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:24">
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="79">
+      <c r="I33" s="12"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="75">
         <v>113902.17679390275</v>
       </c>
-      <c r="T33" s="87">
+      <c r="T33" s="83">
         <v>284755.44198475737</v>
       </c>
-      <c r="U33" s="80">
+      <c r="U33" s="76">
         <v>1560383.6509855881</v>
       </c>
-      <c r="V33" s="13"/>
+      <c r="V33" s="12"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="81">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="156"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="77">
         <v>494655.97602835629</v>
       </c>
-      <c r="T34" s="89">
+      <c r="T34" s="85">
         <v>1703813.4642839448</v>
       </c>
-      <c r="U34" s="160">
+      <c r="U34" s="156">
         <v>1832057.6062172181</v>
       </c>
-      <c r="V34" s="13"/>
+      <c r="V34" s="12"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
     <row r="35" spans="1:24" ht="15" thickTop="1"/>
     <row r="36" spans="1:24" ht="90" customHeight="1">
-      <c r="A36" s="268" t="s">
+      <c r="A36" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="268"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="268"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="268"/>
-      <c r="H36" s="268"/>
-      <c r="I36" s="268"/>
-      <c r="J36" s="268"/>
-      <c r="K36" s="268"/>
-      <c r="L36" s="268"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
+      <c r="H36" s="256"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="256"/>
+      <c r="L36" s="256"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37"/>
@@ -6081,18 +5988,18 @@
       <c r="L39"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
-      <c r="A40" s="266" t="s">
+      <c r="A40" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="266"/>
-      <c r="C40" s="266"/>
-      <c r="D40" s="266"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
+      <c r="B40" s="252"/>
+      <c r="C40" s="252"/>
+      <c r="D40" s="252"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="252"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="252"/>
+      <c r="I40" s="252"/>
+      <c r="J40" s="252"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" s="4"/>
@@ -6104,25 +6011,25 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:24" ht="30" customHeight="1">
-      <c r="A41" s="252"/>
+      <c r="A41" s="246"/>
       <c r="B41"/>
-      <c r="C41" s="266" t="s">
+      <c r="C41" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="266"/>
-      <c r="E41" s="266"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="266"/>
-      <c r="J41" s="266"/>
-      <c r="K41" s="266"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
+      <c r="H41" s="252"/>
+      <c r="I41" s="252"/>
+      <c r="J41" s="252"/>
+      <c r="K41" s="252"/>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="C42" s="60"/>
+      <c r="C42" s="57"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
@@ -6137,26 +6044,21 @@
     <row r="43" spans="1:24" ht="30" customHeight="1">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43" s="266" t="s">
+      <c r="C43" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
       <c r="L43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="F4:M4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:K5"/>
@@ -6164,6 +6066,11 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="F4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" fitToWidth="2" orientation="landscape" r:id="rId1"/>
